--- a/Team-Data/2012-13/12-20-2012-13.xlsx
+++ b/Team-Data/2012-13/12-20-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -789,10 +856,10 @@
         <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
@@ -965,13 +1032,13 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1117,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1141,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1305,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>26</v>
@@ -1526,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>25</v>
@@ -1699,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
@@ -1708,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.462</v>
+        <v>0.48</v>
       </c>
       <c r="H8" t="n">
         <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J8" t="n">
-        <v>82.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.366</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
         <v>17.7</v>
@@ -1797,109 +1864,109 @@
         <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.9</v>
+        <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
         <v>18</v>
       </c>
-      <c r="AF8" t="n">
-        <v>20</v>
-      </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX8" t="n">
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1911,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.519</v>
+        <v>0.538</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J9" t="n">
-        <v>84.2</v>
+        <v>83.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.464</v>
+        <v>0.467</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6860000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="T9" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
         <v>6.7</v>
@@ -2009,34 +2076,34 @@
         <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2045,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2063,19 +2130,19 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2090,10 +2157,10 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2400,19 +2467,19 @@
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK11" t="n">
         <v>8</v>
       </c>
-      <c r="AK11" t="n">
-        <v>7</v>
-      </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>16</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2573,16 +2640,16 @@
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2755,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2776,10 +2843,10 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -3352,13 +3419,13 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.739</v>
+        <v>0.727</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
         <v>78.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.409</v>
+        <v>0.412</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="R17" t="n">
         <v>7.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
         <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
@@ -3459,31 +3526,31 @@
         <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3707,10 +3774,10 @@
         <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.542</v>
+        <v>0.522</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.301</v>
+        <v>0.294</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S19" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T19" t="n">
         <v>45.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.8</v>
@@ -3829,40 +3896,40 @@
         <v>18.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3886,16 +3953,16 @@
         <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
         <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
         <v>9</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>2</v>
@@ -4220,7 +4287,7 @@
         <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.481</v>
+        <v>0.485</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.402</v>
+        <v>0.409</v>
       </c>
       <c r="O22" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.845</v>
       </c>
       <c r="R22" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
@@ -4357,34 +4424,34 @@
         <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X22" t="n">
         <v>7.7</v>
       </c>
-      <c r="X22" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Y22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.1</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4408,13 +4475,13 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4435,13 +4502,13 @@
         <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
         <v>18</v>
       </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
         <v>27</v>
@@ -4584,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4815,34 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
         <v>16</v>
@@ -4796,7 +4863,7 @@
         <v>23</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
         <v>23</v>
@@ -4975,7 +5042,7 @@
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4996,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="BC25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>83.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.432</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O26" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P26" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,52 +5209,52 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO26" t="n">
         <v>20</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>18</v>
       </c>
       <c r="AP26" t="n">
         <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>12</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5312,7 +5379,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5321,10 +5388,10 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5533,7 +5600,7 @@
         <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5682,13 +5749,13 @@
         <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO29" t="n">
         <v>10</v>
@@ -5706,7 +5773,7 @@
         <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>9</v>
       </c>
       <c r="AF30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" t="n">
         <v>17</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>13</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6076,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-20-2012-13</t>
+          <t>2012-12-20</t>
         </is>
       </c>
     </row>
